--- a/ConfigTable/Datas/__enums__.xlsx
+++ b/ConfigTable/Datas/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
   <si>
     <t>##var</t>
   </si>
@@ -252,6 +252,36 @@
   </si>
   <si>
     <t>包</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>item.EType</t>
+  </si>
+  <si>
+    <t>道具类型</t>
+  </si>
+  <si>
+    <t>Equip</t>
+  </si>
+  <si>
+    <t>装备</t>
+  </si>
+  <si>
+    <t>Cosume</t>
+  </si>
+  <si>
+    <t>消耗道具</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>普通</t>
   </si>
 </sst>
 </file>
@@ -1217,10 +1247,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1651,6 +1681,62 @@
         <v>14</v>
       </c>
     </row>
+    <row r="33" spans="8:10">
+      <c r="H33" t="s">
+        <v>75</v>
+      </c>
+      <c r="I33" t="s">
+        <v>76</v>
+      </c>
+      <c r="J33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35" t="s">
+        <v>79</v>
+      </c>
+      <c r="I35" t="s">
+        <v>80</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="8:10">
+      <c r="H36" t="s">
+        <v>81</v>
+      </c>
+      <c r="I36" t="s">
+        <v>82</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="8:10">
+      <c r="H37" t="s">
+        <v>83</v>
+      </c>
+      <c r="I37" t="s">
+        <v>84</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/ConfigTable/Datas/__enums__.xlsx
+++ b/ConfigTable/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1247,10 +1247,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1623,7 +1623,7 @@
         <v>64</v>
       </c>
       <c r="J27">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="8:10">
@@ -1634,7 +1634,7 @@
         <v>66</v>
       </c>
       <c r="J28">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="8:10">
@@ -1645,7 +1645,7 @@
         <v>68</v>
       </c>
       <c r="J29">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="8:10">
@@ -1656,7 +1656,7 @@
         <v>70</v>
       </c>
       <c r="J30">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="8:10">
@@ -1667,7 +1667,7 @@
         <v>72</v>
       </c>
       <c r="J31">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="8:10">
@@ -1678,7 +1678,7 @@
         <v>74</v>
       </c>
       <c r="J32">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="8:10">
@@ -1689,51 +1689,51 @@
         <v>76</v>
       </c>
       <c r="J33">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" t="s">
         <v>77</v>
       </c>
-      <c r="C35" t="b">
+      <c r="C36" t="b">
         <v>0</v>
       </c>
-      <c r="D35" t="b">
+      <c r="D36" t="b">
         <v>1</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F36" t="s">
         <v>78</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H36" t="s">
         <v>79</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I36" t="s">
         <v>80</v>
       </c>
-      <c r="J35">
+      <c r="J36">
         <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="8:10">
-      <c r="H36" t="s">
-        <v>81</v>
-      </c>
-      <c r="I36" t="s">
-        <v>82</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
       </c>
     </row>
     <row r="37" spans="8:10">
       <c r="H37" t="s">
+        <v>81</v>
+      </c>
+      <c r="I37" t="s">
+        <v>82</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="8:10">
+      <c r="H38" t="s">
         <v>83</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I38" t="s">
         <v>84</v>
       </c>
-      <c r="J37">
+      <c r="J38">
         <v>2</v>
       </c>
     </row>

--- a/ConfigTable/Datas/__enums__.xlsx
+++ b/ConfigTable/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
   <si>
     <t>##var</t>
   </si>
@@ -86,88 +86,106 @@
     <t>注释</t>
   </si>
   <si>
-    <t>game.EPlotType</t>
-  </si>
-  <si>
-    <t>START</t>
-  </si>
-  <si>
-    <t>开始</t>
-  </si>
-  <si>
-    <t>STORY</t>
-  </si>
-  <si>
-    <t>故事</t>
-  </si>
-  <si>
-    <t>剧情过场</t>
-  </si>
-  <si>
-    <t>GAME</t>
-  </si>
-  <si>
-    <t>游戏</t>
-  </si>
-  <si>
-    <t>玩家游玩</t>
-  </si>
-  <si>
-    <t>Dialogue</t>
-  </si>
-  <si>
-    <t>对话</t>
-  </si>
-  <si>
-    <t>互动道具或人物产生的对话</t>
-  </si>
-  <si>
-    <t>save.ESaveDataType</t>
-  </si>
-  <si>
-    <t>CurStoryStateSaveData</t>
-  </si>
-  <si>
-    <t>剧情，对话系统相关</t>
-  </si>
-  <si>
-    <t>ExhibitSaveData</t>
-  </si>
-  <si>
-    <t>线索</t>
-  </si>
-  <si>
-    <t>现有线索存档</t>
-  </si>
-  <si>
-    <t>TestimonySaveData</t>
-  </si>
-  <si>
-    <t>证言</t>
-  </si>
-  <si>
-    <t>PersonnelSaveData</t>
-  </si>
-  <si>
-    <t>人物</t>
-  </si>
-  <si>
-    <t>inquiry.EInquiryType</t>
-  </si>
-  <si>
-    <t>Exhibit</t>
-  </si>
-  <si>
-    <t>证物</t>
-  </si>
-  <si>
-    <t>Testimony</t>
-  </si>
-  <si>
-    <t>RelatedPersonnel</t>
-  </si>
-  <si>
-    <t>chara.ESkinEquipType</t>
+    <t>chara.ESkinType</t>
+  </si>
+  <si>
+    <t>角色外表类型</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>Hair_Front</t>
+  </si>
+  <si>
+    <t>前发</t>
+  </si>
+  <si>
+    <t>Hair_Middle</t>
+  </si>
+  <si>
+    <t>中发</t>
+  </si>
+  <si>
+    <t>Hair_Back</t>
+  </si>
+  <si>
+    <t>后发</t>
+  </si>
+  <si>
+    <t>Eye</t>
+  </si>
+  <si>
+    <t>眼睛</t>
+  </si>
+  <si>
+    <t>Eyebrow</t>
+  </si>
+  <si>
+    <t>眉毛</t>
+  </si>
+  <si>
+    <t>Nose</t>
+  </si>
+  <si>
+    <t>鼻子</t>
+  </si>
+  <si>
+    <t>Mouth</t>
+  </si>
+  <si>
+    <t>嘴</t>
+  </si>
+  <si>
+    <t>SkinColor</t>
+  </si>
+  <si>
+    <t>肤色</t>
+  </si>
+  <si>
+    <t>Figure</t>
+  </si>
+  <si>
+    <t>身材</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>身高</t>
+  </si>
+  <si>
+    <t>item.EType</t>
+  </si>
+  <si>
+    <t>道具类型</t>
+  </si>
+  <si>
+    <t>Equip</t>
+  </si>
+  <si>
+    <t>装备</t>
+  </si>
+  <si>
+    <t>Cosume</t>
+  </si>
+  <si>
+    <t>消耗道具</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>item.EEquipType</t>
+  </si>
+  <si>
+    <t>装备类型</t>
   </si>
   <si>
     <t>Head</t>
@@ -182,21 +200,12 @@
     <t>头发</t>
   </si>
   <si>
-    <t>Eye</t>
-  </si>
-  <si>
-    <t>眼睛</t>
-  </si>
-  <si>
     <t>Glasses</t>
   </si>
   <si>
     <t>眼镜</t>
   </si>
   <si>
-    <t>Mouth</t>
-  </si>
-  <si>
     <t>口部</t>
   </si>
   <si>
@@ -258,30 +267,6 @@
   </si>
   <si>
     <t>武器</t>
-  </si>
-  <si>
-    <t>item.EType</t>
-  </si>
-  <si>
-    <t>道具类型</t>
-  </si>
-  <si>
-    <t>Equip</t>
-  </si>
-  <si>
-    <t>装备</t>
-  </si>
-  <si>
-    <t>Cosume</t>
-  </si>
-  <si>
-    <t>消耗道具</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>普通</t>
   </si>
 </sst>
 </file>
@@ -912,7 +897,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -923,9 +908,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1247,10 +1229,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1352,7 +1334,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:10">
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -1362,34 +1344,31 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="8:11">
+    </row>
+    <row r="5" spans="8:10">
       <c r="H5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="8:11">
+    </row>
+    <row r="6" spans="8:10">
       <c r="H6" t="s">
         <v>25</v>
       </c>
@@ -1399,187 +1378,183 @@
       <c r="J6">
         <v>2</v>
       </c>
-      <c r="K6" t="s">
+    </row>
+    <row r="7" spans="8:10">
+      <c r="H7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="8:11">
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>28</v>
-      </c>
-      <c r="I7" t="s">
-        <v>29</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
-      <c r="K7" t="s">
+    </row>
+    <row r="8" spans="8:10">
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" t="s">
+      <c r="J8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="8:10">
+      <c r="H9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>32</v>
       </c>
-      <c r="I9" t="s">
-        <v>23</v>
-      </c>
       <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="8:10">
+      <c r="H10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="8:11">
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>34</v>
       </c>
-      <c r="I10" t="s">
-        <v>35</v>
-      </c>
       <c r="J10">
-        <v>2</v>
-      </c>
-      <c r="K10" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="8:10">
       <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="8:10">
+      <c r="H12" t="s">
         <v>37</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I12" t="s">
         <v>38</v>
       </c>
-      <c r="J11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="8:10">
-      <c r="H12" s="4" t="s">
+      <c r="J12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="8:10">
+      <c r="H13" t="s">
         <v>39</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I13" t="s">
         <v>40</v>
       </c>
-      <c r="J12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" t="s">
+      <c r="J13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="8:10">
+      <c r="H14" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="b">
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D15" t="b">
+      <c r="D17" t="b">
         <v>1</v>
       </c>
-      <c r="H15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15">
+      <c r="F17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="8:10">
-      <c r="H16" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16">
+    <row r="18" spans="8:10">
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="8:10">
-      <c r="H17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17">
+    <row r="19" spans="8:10">
+      <c r="H19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="b">
+    <row r="21" spans="2:10">
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D19" t="b">
+      <c r="D21" t="b">
         <v>1</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
-        <v>48</v>
-      </c>
-      <c r="J19">
+      <c r="F21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21">
         <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="8:10">
-      <c r="H20" t="s">
-        <v>49</v>
-      </c>
-      <c r="I20" t="s">
-        <v>50</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="8:10">
-      <c r="H21" t="s">
-        <v>51</v>
-      </c>
-      <c r="I21" t="s">
-        <v>52</v>
-      </c>
-      <c r="J21">
-        <v>2</v>
       </c>
     </row>
     <row r="22" spans="8:10">
       <c r="H22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="8:10">
       <c r="H23" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I23" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="8:10">
@@ -1590,151 +1565,128 @@
         <v>58</v>
       </c>
       <c r="J24">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="8:10">
       <c r="H25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" t="s">
         <v>59</v>
       </c>
-      <c r="I25" t="s">
-        <v>60</v>
-      </c>
       <c r="J25">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="8:10">
       <c r="H26" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" t="s">
         <v>61</v>
       </c>
-      <c r="I26" t="s">
-        <v>62</v>
-      </c>
       <c r="J26">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="8:10">
       <c r="H27" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" t="s">
         <v>63</v>
       </c>
-      <c r="I27" t="s">
-        <v>64</v>
-      </c>
       <c r="J27">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="8:10">
       <c r="H28" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" t="s">
         <v>65</v>
       </c>
-      <c r="I28" t="s">
-        <v>66</v>
-      </c>
       <c r="J28">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="8:10">
       <c r="H29" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29" t="s">
         <v>67</v>
       </c>
-      <c r="I29" t="s">
-        <v>68</v>
-      </c>
       <c r="J29">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="8:10">
       <c r="H30" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30" t="s">
         <v>69</v>
       </c>
-      <c r="I30" t="s">
-        <v>70</v>
-      </c>
       <c r="J30">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="8:10">
       <c r="H31" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31" t="s">
         <v>71</v>
       </c>
-      <c r="I31" t="s">
-        <v>72</v>
-      </c>
       <c r="J31">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="8:10">
       <c r="H32" t="s">
+        <v>72</v>
+      </c>
+      <c r="I32" t="s">
         <v>73</v>
       </c>
-      <c r="I32" t="s">
-        <v>74</v>
-      </c>
       <c r="J32">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="8:10">
       <c r="H33" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33" t="s">
         <v>75</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="8:10">
+      <c r="H34" t="s">
         <v>76</v>
       </c>
-      <c r="J33">
+      <c r="I34" t="s">
+        <v>77</v>
+      </c>
+      <c r="J34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="8:10">
+      <c r="H35" t="s">
+        <v>78</v>
+      </c>
+      <c r="I35" t="s">
+        <v>79</v>
+      </c>
+      <c r="J35">
         <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="B36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" t="b">
-        <v>0</v>
-      </c>
-      <c r="D36" t="b">
-        <v>1</v>
-      </c>
-      <c r="F36" t="s">
-        <v>78</v>
-      </c>
-      <c r="H36" t="s">
-        <v>79</v>
-      </c>
-      <c r="I36" t="s">
-        <v>80</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="8:10">
-      <c r="H37" t="s">
-        <v>81</v>
-      </c>
-      <c r="I37" t="s">
-        <v>82</v>
-      </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="8:10">
-      <c r="H38" t="s">
-        <v>83</v>
-      </c>
-      <c r="I38" t="s">
-        <v>84</v>
-      </c>
-      <c r="J38">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigTable/Datas/__enums__.xlsx
+++ b/ConfigTable/Datas/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="88">
   <si>
     <t>##var</t>
   </si>
@@ -84,6 +84,30 @@
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>game.EProcessState</t>
+  </si>
+  <si>
+    <t>流程</t>
+  </si>
+  <si>
+    <t>StartGame</t>
+  </si>
+  <si>
+    <t>开始</t>
+  </si>
+  <si>
+    <t>CharaMake</t>
+  </si>
+  <si>
+    <t>捏人</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>游戏</t>
   </si>
   <si>
     <t>chara.ESkinType</t>
@@ -1229,10 +1253,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1379,313 +1403,358 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="8:10">
-      <c r="H7" t="s">
+    <row r="18" spans="2:10">
+      <c r="B18" t="s">
         <v>27</v>
       </c>
-      <c r="I7" t="s">
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
         <v>28</v>
       </c>
-      <c r="J7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="8:10">
-      <c r="H8" t="s">
+      <c r="H18" t="s">
         <v>29</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I18" t="s">
         <v>30</v>
       </c>
-      <c r="J8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="8:10">
-      <c r="H9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="8:10">
-      <c r="H10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="8:10">
-      <c r="H11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="8:10">
-      <c r="H12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="8:10">
-      <c r="H13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="8:10">
-      <c r="H14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="b">
+      <c r="J18">
         <v>0</v>
-      </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="8:10">
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
-        <v>48</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
       </c>
     </row>
     <row r="19" spans="8:10">
       <c r="H19" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I19" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="8:10">
+      <c r="H20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" t="b">
-        <v>0</v>
-      </c>
-      <c r="D21" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>52</v>
-      </c>
+    <row r="21" spans="8:10">
       <c r="H21" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="I21" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="8:10">
       <c r="H22" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="I22" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="8:10">
       <c r="H23" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I23" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="8:10">
       <c r="H24" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="I24" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="8:10">
       <c r="H25" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I25" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="8:10">
       <c r="H26" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="I26" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="J26">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="8:10">
       <c r="H27" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="J27">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="8:10">
       <c r="H28" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="I28" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="J28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="8:10">
-      <c r="H29" t="s">
-        <v>66</v>
-      </c>
-      <c r="I29" t="s">
-        <v>67</v>
-      </c>
-      <c r="J29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="8:10">
-      <c r="H30" t="s">
-        <v>68</v>
-      </c>
-      <c r="I30" t="s">
-        <v>69</v>
-      </c>
-      <c r="J30">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="8:10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>52</v>
+      </c>
       <c r="H31" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="I31" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="J31">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="8:10">
       <c r="H32" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="I32" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="J32">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="8:10">
       <c r="H33" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>60</v>
+      </c>
+      <c r="H35" t="s">
+        <v>61</v>
+      </c>
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="8:10">
+      <c r="H36" t="s">
+        <v>63</v>
+      </c>
+      <c r="I36" t="s">
+        <v>64</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="8:10">
+      <c r="H37" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" t="s">
+        <v>38</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="8:10">
+      <c r="H38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I38" t="s">
+        <v>66</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="8:10">
+      <c r="H39" t="s">
+        <v>43</v>
+      </c>
+      <c r="I39" t="s">
+        <v>67</v>
+      </c>
+      <c r="J39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="8:10">
+      <c r="H40" t="s">
+        <v>68</v>
+      </c>
+      <c r="I40" t="s">
+        <v>69</v>
+      </c>
+      <c r="J40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="8:10">
+      <c r="H41" t="s">
+        <v>70</v>
+      </c>
+      <c r="I41" t="s">
+        <v>71</v>
+      </c>
+      <c r="J41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="8:10">
+      <c r="H42" t="s">
+        <v>72</v>
+      </c>
+      <c r="I42" t="s">
+        <v>73</v>
+      </c>
+      <c r="J42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="8:10">
+      <c r="H43" t="s">
         <v>74</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I43" t="s">
         <v>75</v>
       </c>
-      <c r="J33">
+      <c r="J43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="8:10">
+      <c r="H44" t="s">
+        <v>76</v>
+      </c>
+      <c r="I44" t="s">
+        <v>77</v>
+      </c>
+      <c r="J44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="8:10">
+      <c r="H45" t="s">
+        <v>78</v>
+      </c>
+      <c r="I45" t="s">
+        <v>79</v>
+      </c>
+      <c r="J45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="8:10">
+      <c r="H46" t="s">
+        <v>80</v>
+      </c>
+      <c r="I46" t="s">
+        <v>81</v>
+      </c>
+      <c r="J46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="8:10">
+      <c r="H47" t="s">
+        <v>82</v>
+      </c>
+      <c r="I47" t="s">
+        <v>83</v>
+      </c>
+      <c r="J47">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="8:10">
-      <c r="H34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I34" t="s">
-        <v>77</v>
-      </c>
-      <c r="J34">
+    <row r="48" spans="8:10">
+      <c r="H48" t="s">
+        <v>84</v>
+      </c>
+      <c r="I48" t="s">
+        <v>85</v>
+      </c>
+      <c r="J48">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="8:10">
-      <c r="H35" t="s">
-        <v>78</v>
-      </c>
-      <c r="I35" t="s">
-        <v>79</v>
-      </c>
-      <c r="J35">
+    <row r="49" spans="8:10">
+      <c r="H49" t="s">
+        <v>86</v>
+      </c>
+      <c r="I49" t="s">
+        <v>87</v>
+      </c>
+      <c r="J49">
         <v>14</v>
       </c>
     </row>

--- a/ConfigTable/Datas/__enums__.xlsx
+++ b/ConfigTable/Datas/__enums__.xlsx
@@ -200,10 +200,10 @@
     <t>消耗道具</t>
   </si>
   <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>普通</t>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>任务道具</t>
   </si>
   <si>
     <t>item.EEquipType</t>
@@ -1256,7 +1256,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
